--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -667,7 +667,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>1376</x:v>
+        <x:v>1378</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
         <x:v>2052</x:v>
@@ -884,7 +884,7 @@
         <x:v>1452</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>1256</x:v>
+        <x:v>1257</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>291</x:v>
@@ -907,10 +907,10 @@
         <x:v>2524</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>3436</x:v>
+        <x:v>3437</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>3164</x:v>
+        <x:v>3165</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>1056</x:v>
@@ -1326,7 +1326,7 @@
         <x:v>2646</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
-        <x:v>2316</x:v>
+        <x:v>2317</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
         <x:v>984</x:v>
@@ -1372,7 +1372,7 @@
         <x:v>176</x:v>
       </x:c>
       <x:c r="D34" s="1" t="n">
-        <x:v>138</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="E34" s="1" t="n">
         <x:v>221</x:v>
@@ -1580,7 +1580,7 @@
         <x:v>159</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
         <x:v>199</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -667,7 +667,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>1378</x:v>
+        <x:v>1379</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
         <x:v>2052</x:v>
@@ -884,7 +884,7 @@
         <x:v>1452</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>1257</x:v>
+        <x:v>1258</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>291</x:v>
@@ -907,10 +907,10 @@
         <x:v>2524</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>3437</x:v>
+        <x:v>3438</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>3165</x:v>
+        <x:v>3166</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>1056</x:v>
@@ -1060,7 +1060,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>388</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>540</x:v>
@@ -1069,7 +1069,7 @@
         <x:v>486</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
         <x:v>0</x:v>
@@ -1606,7 +1606,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
         <x:v>166</x:v>
@@ -1638,7 +1638,7 @@
         <x:v>571</x:v>
       </x:c>
       <x:c r="F44" s="1" t="n">
-        <x:v>531</x:v>
+        <x:v>532</x:v>
       </x:c>
       <x:c r="G44" s="1" t="n">
         <x:v>88</x:v>
@@ -1690,7 +1690,7 @@
         <x:v>742</x:v>
       </x:c>
       <x:c r="F46" s="1" t="n">
-        <x:v>549</x:v>
+        <x:v>550</x:v>
       </x:c>
       <x:c r="G46" s="1" t="n">
         <x:v>219</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -673,7 +673,7 @@
         <x:v>2052</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>3827</x:v>
+        <x:v>3826</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
         <x:v>3887</x:v>
@@ -748,7 +748,7 @@
         <x:v>158</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>224</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>430</x:v>
@@ -881,7 +881,7 @@
         <x:v>959</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>1452</x:v>
+        <x:v>1451</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
         <x:v>1258</x:v>
@@ -904,13 +904,13 @@
         <x:v>656</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>2524</x:v>
+        <x:v>2523</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>3438</x:v>
+        <x:v>3439</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>3166</x:v>
+        <x:v>3167</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>1056</x:v>
@@ -1063,7 +1063,7 @@
         <x:v>389</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
-        <x:v>540</x:v>
+        <x:v>541</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
         <x:v>486</x:v>
@@ -1141,7 +1141,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F25" s="1" t="n">
         <x:v>11</x:v>
@@ -1294,10 +1294,10 @@
         <x:v>561</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>1342</x:v>
+        <x:v>1343</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
-        <x:v>1911</x:v>
+        <x:v>1913</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
         <x:v>1756</x:v>
@@ -1320,7 +1320,7 @@
         <x:v>807</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
-        <x:v>1683</x:v>
+        <x:v>1685</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
         <x:v>2646</x:v>
@@ -1329,7 +1329,7 @@
         <x:v>2317</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
-        <x:v>984</x:v>
+        <x:v>985</x:v>
       </x:c>
       <x:c r="H32" s="1" t="n">
         <x:v>1</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -725,7 +725,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
         <x:v>129</x:v>
@@ -904,7 +904,7 @@
         <x:v>656</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>2523</x:v>
+        <x:v>2522</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
         <x:v>3439</x:v>
@@ -1303,7 +1303,7 @@
         <x:v>1756</x:v>
       </x:c>
       <x:c r="G31" s="1" t="n">
-        <x:v>732</x:v>
+        <x:v>733</x:v>
       </x:c>
       <x:c r="H31" s="1" t="n">
         <x:v>0</x:v>
@@ -1638,7 +1638,7 @@
         <x:v>571</x:v>
       </x:c>
       <x:c r="F44" s="1" t="n">
-        <x:v>532</x:v>
+        <x:v>533</x:v>
       </x:c>
       <x:c r="G44" s="1" t="n">
         <x:v>88</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -1323,7 +1323,7 @@
         <x:v>1685</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
-        <x:v>2646</x:v>
+        <x:v>2645</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
         <x:v>2317</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -913,7 +913,7 @@
         <x:v>3167</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
-        <x:v>1056</x:v>
+        <x:v>1057</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
         <x:v>0</x:v>
@@ -1268,7 +1268,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
         <x:v>30</x:v>
@@ -1326,7 +1326,7 @@
         <x:v>2645</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
-        <x:v>2317</x:v>
+        <x:v>2318</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
         <x:v>985</x:v>
@@ -1687,7 +1687,7 @@
         <x:v>671</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
-        <x:v>742</x:v>
+        <x:v>743</x:v>
       </x:c>
       <x:c r="F46" s="1" t="n">
         <x:v>550</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -904,10 +904,10 @@
         <x:v>656</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>2522</x:v>
+        <x:v>2521</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>3439</x:v>
+        <x:v>3440</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
         <x:v>3167</x:v>
@@ -1040,7 +1040,7 @@
         <x:v>318</x:v>
       </x:c>
       <x:c r="F21" s="1" t="n">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="G21" s="1" t="n">
         <x:v>77</x:v>
@@ -1580,7 +1580,7 @@
         <x:v>159</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
         <x:v>199</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -751,7 +751,7 @@
         <x:v>223</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>430</x:v>
+        <x:v>431</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
         <x:v>415</x:v>
@@ -1297,10 +1297,10 @@
         <x:v>1343</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
-        <x:v>1913</x:v>
+        <x:v>1914</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
-        <x:v>1756</x:v>
+        <x:v>1757</x:v>
       </x:c>
       <x:c r="G31" s="1" t="n">
         <x:v>733</x:v>
@@ -1609,7 +1609,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="F43" s="1" t="n">
         <x:v>128</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -907,7 +907,7 @@
         <x:v>2521</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>3440</x:v>
+        <x:v>3439</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
         <x:v>3167</x:v>
@@ -1063,7 +1063,7 @@
         <x:v>389</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
-        <x:v>541</x:v>
+        <x:v>540</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
         <x:v>486</x:v>
@@ -1606,7 +1606,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
-        <x:v>97</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
         <x:v>167</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -832,7 +832,7 @@
         <x:v>144</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>33</x:v>
@@ -852,7 +852,7 @@
         <x:v>353</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>291</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
         <x:v>408</x:v>
@@ -1037,7 +1037,7 @@
         <x:v>178</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
-        <x:v>318</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="F21" s="1" t="n">
         <x:v>296</x:v>
@@ -1326,7 +1326,7 @@
         <x:v>2645</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
-        <x:v>2318</x:v>
+        <x:v>2319</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
         <x:v>985</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -1294,7 +1294,7 @@
         <x:v>561</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>1343</x:v>
+        <x:v>1344</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
         <x:v>1914</x:v>
@@ -1320,7 +1320,7 @@
         <x:v>807</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
-        <x:v>1685</x:v>
+        <x:v>1686</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
         <x:v>2645</x:v>
@@ -1525,7 +1525,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C40" s="1" t="n">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="D40" s="1" t="n">
         <x:v>227</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -907,7 +907,7 @@
         <x:v>2521</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>3439</x:v>
+        <x:v>3438</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
         <x:v>3167</x:v>
@@ -1349,7 +1349,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="E33" s="1" t="n">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="F33" s="1" t="n">
         <x:v>40</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -624,7 +624,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F5" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G5" s="1" t="n">
         <x:v>7</x:v>
@@ -1320,7 +1320,7 @@
         <x:v>807</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
-        <x:v>1686</x:v>
+        <x:v>1687</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
         <x:v>2645</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -881,7 +881,7 @@
         <x:v>959</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>1451</x:v>
+        <x:v>1452</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
         <x:v>1258</x:v>
@@ -907,7 +907,7 @@
         <x:v>2521</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>3438</x:v>
+        <x:v>3439</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
         <x:v>3167</x:v>
@@ -1300,7 +1300,7 @@
         <x:v>1914</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
-        <x:v>1757</x:v>
+        <x:v>1758</x:v>
       </x:c>
       <x:c r="G31" s="1" t="n">
         <x:v>733</x:v>
@@ -1323,7 +1323,7 @@
         <x:v>1687</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
-        <x:v>2645</x:v>
+        <x:v>2646</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
         <x:v>2319</x:v>
@@ -1563,7 +1563,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="G41" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H41" s="1" t="n">
         <x:v>0</x:v>
@@ -1638,7 +1638,7 @@
         <x:v>571</x:v>
       </x:c>
       <x:c r="F44" s="1" t="n">
-        <x:v>533</x:v>
+        <x:v>534</x:v>
       </x:c>
       <x:c r="G44" s="1" t="n">
         <x:v>88</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -650,10 +650,10 @@
         <x:v>1145</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>1128</x:v>
+        <x:v>1127</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
-        <x:v>366</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
         <x:v>0</x:v>
@@ -670,7 +670,7 @@
         <x:v>1379</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>2052</x:v>
+        <x:v>2051</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
         <x:v>3826</x:v>
@@ -1294,7 +1294,7 @@
         <x:v>561</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>1344</x:v>
+        <x:v>1342</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
         <x:v>1914</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -676,10 +676,10 @@
         <x:v>3826</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>3887</x:v>
+        <x:v>3886</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>1535</x:v>
+        <x:v>1534</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -855,7 +855,7 @@
         <x:v>292</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>408</x:v>
+        <x:v>409</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
         <x:v>424</x:v>
@@ -907,7 +907,7 @@
         <x:v>2521</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>3439</x:v>
+        <x:v>3438</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
         <x:v>3167</x:v>
@@ -936,7 +936,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
         <x:v>4</x:v>
@@ -1297,7 +1297,7 @@
         <x:v>1342</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
-        <x:v>1914</x:v>
+        <x:v>1913</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
         <x:v>1758</x:v>
@@ -1320,13 +1320,13 @@
         <x:v>807</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
-        <x:v>1687</x:v>
+        <x:v>1686</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
         <x:v>2646</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
-        <x:v>2319</x:v>
+        <x:v>2320</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
         <x:v>985</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -673,7 +673,7 @@
         <x:v>2051</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>3826</x:v>
+        <x:v>3825</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
         <x:v>3886</x:v>
@@ -1037,7 +1037,7 @@
         <x:v>178</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="F21" s="1" t="n">
         <x:v>296</x:v>
@@ -1323,7 +1323,7 @@
         <x:v>1686</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
-        <x:v>2646</x:v>
+        <x:v>2647</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
         <x:v>2320</x:v>
@@ -1378,7 +1378,7 @@
         <x:v>221</x:v>
       </x:c>
       <x:c r="F34" s="1" t="n">
-        <x:v>196</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="G34" s="1" t="n">
         <x:v>33</x:v>
@@ -1580,7 +1580,7 @@
         <x:v>159</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
-        <x:v>180</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
         <x:v>199</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -852,7 +852,7 @@
         <x:v>353</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>292</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
         <x:v>409</x:v>
@@ -878,7 +878,7 @@
         <x:v>305</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>959</x:v>
+        <x:v>958</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>1452</x:v>
@@ -904,7 +904,7 @@
         <x:v>656</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>2521</x:v>
+        <x:v>2520</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
         <x:v>3438</x:v>
@@ -1586,7 +1586,7 @@
         <x:v>199</x:v>
       </x:c>
       <x:c r="F42" s="1" t="n">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="G42" s="1" t="n">
         <x:v>159</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -881,7 +881,7 @@
         <x:v>958</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>1452</x:v>
+        <x:v>1453</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
         <x:v>1258</x:v>
@@ -907,7 +907,7 @@
         <x:v>2520</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>3438</x:v>
+        <x:v>3441</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
         <x:v>3167</x:v>
@@ -1300,7 +1300,7 @@
         <x:v>1913</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
-        <x:v>1758</x:v>
+        <x:v>1757</x:v>
       </x:c>
       <x:c r="G31" s="1" t="n">
         <x:v>733</x:v>
@@ -1577,13 +1577,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C42" s="1" t="n">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
         <x:v>182</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
-        <x:v>199</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="F42" s="1" t="n">
         <x:v>246</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -881,7 +881,7 @@
         <x:v>958</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>1453</x:v>
+        <x:v>1454</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
         <x:v>1258</x:v>
@@ -910,7 +910,7 @@
         <x:v>3441</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>3167</x:v>
+        <x:v>3166</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>1057</x:v>
@@ -1300,7 +1300,7 @@
         <x:v>1913</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
-        <x:v>1757</x:v>
+        <x:v>1758</x:v>
       </x:c>
       <x:c r="G31" s="1" t="n">
         <x:v>733</x:v>
@@ -1326,7 +1326,7 @@
         <x:v>2647</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
-        <x:v>2320</x:v>
+        <x:v>2319</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
         <x:v>985</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -745,7 +745,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>223</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -1291,7 +1291,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>561</x:v>
+        <x:v>562</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
         <x:v>1342</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -1034,7 +1034,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
         <x:v>320</x:v>
@@ -1369,7 +1369,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C34" s="1" t="n">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="D34" s="1" t="n">
         <x:v>142</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -1690,7 +1690,7 @@
         <x:v>743</x:v>
       </x:c>
       <x:c r="F46" s="1" t="n">
-        <x:v>550</x:v>
+        <x:v>551</x:v>
       </x:c>
       <x:c r="G46" s="1" t="n">
         <x:v>219</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -647,7 +647,7 @@
         <x:v>729</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>1145</x:v>
+        <x:v>1146</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
         <x:v>1127</x:v>
@@ -670,7 +670,7 @@
         <x:v>1379</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>2051</x:v>
+        <x:v>2050</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
         <x:v>3825</x:v>
@@ -881,7 +881,7 @@
         <x:v>958</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>1454</x:v>
+        <x:v>1453</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
         <x:v>1258</x:v>
@@ -904,13 +904,13 @@
         <x:v>656</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>2520</x:v>
+        <x:v>2519</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>3441</x:v>
+        <x:v>3438</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>3166</x:v>
+        <x:v>3161</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>1057</x:v>
@@ -1063,7 +1063,7 @@
         <x:v>389</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
-        <x:v>540</x:v>
+        <x:v>541</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
         <x:v>486</x:v>
@@ -1320,7 +1320,7 @@
         <x:v>807</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
-        <x:v>1686</x:v>
+        <x:v>1687</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
         <x:v>2647</x:v>
@@ -1586,10 +1586,10 @@
         <x:v>201</x:v>
       </x:c>
       <x:c r="F42" s="1" t="n">
-        <x:v>246</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="G42" s="1" t="n">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="H42" s="1" t="n">
         <x:v>0</x:v>
@@ -1632,7 +1632,7 @@
         <x:v>244</x:v>
       </x:c>
       <x:c r="D44" s="1" t="n">
-        <x:v>296</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="E44" s="1" t="n">
         <x:v>571</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -673,7 +673,7 @@
         <x:v>2050</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>3825</x:v>
+        <x:v>3826</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
         <x:v>3886</x:v>
@@ -904,13 +904,13 @@
         <x:v>656</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>2519</x:v>
+        <x:v>2518</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
         <x:v>3438</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>3161</x:v>
+        <x:v>3160</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>1057</x:v>
@@ -1369,7 +1369,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C34" s="1" t="n">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="D34" s="1" t="n">
         <x:v>142</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -676,7 +676,7 @@
         <x:v>3826</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>3886</x:v>
+        <x:v>3888</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>1534</x:v>
@@ -754,7 +754,7 @@
         <x:v>431</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>415</x:v>
+        <x:v>416</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>120</x:v>
@@ -884,7 +884,7 @@
         <x:v>1453</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>1258</x:v>
+        <x:v>1259</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>291</x:v>
@@ -1323,7 +1323,7 @@
         <x:v>1687</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
-        <x:v>2647</x:v>
+        <x:v>2648</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
         <x:v>2319</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -748,7 +748,7 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>431</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -676,7 +676,7 @@
         <x:v>3826</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>3888</x:v>
+        <x:v>3889</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>1534</x:v>
@@ -751,7 +751,7 @@
         <x:v>224</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>431</x:v>
+        <x:v>432</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
         <x:v>416</x:v>
@@ -780,7 +780,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
         <x:v>16</x:v>
@@ -809,7 +809,7 @@
         <x:v>168</x:v>
       </x:c>
       <x:c r="G12" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H12" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -676,7 +676,7 @@
         <x:v>3826</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>3889</x:v>
+        <x:v>3888</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>1534</x:v>
@@ -878,16 +878,16 @@
         <x:v>305</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>958</x:v>
+        <x:v>954</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>1453</x:v>
+        <x:v>1448</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>1259</x:v>
+        <x:v>1254</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>291</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>
@@ -904,16 +904,16 @@
         <x:v>656</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>2518</x:v>
+        <x:v>2506</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>3438</x:v>
+        <x:v>3414</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>3160</x:v>
+        <x:v>3153</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
-        <x:v>1057</x:v>
+        <x:v>1051</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
         <x:v>0</x:v>
@@ -1297,7 +1297,7 @@
         <x:v>1342</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
-        <x:v>1913</x:v>
+        <x:v>1912</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
         <x:v>1758</x:v>
@@ -1320,10 +1320,10 @@
         <x:v>807</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
-        <x:v>1687</x:v>
+        <x:v>1686</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
-        <x:v>2648</x:v>
+        <x:v>2647</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
         <x:v>2319</x:v>
@@ -1369,7 +1369,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C34" s="1" t="n">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="D34" s="1" t="n">
         <x:v>142</x:v>
@@ -1687,7 +1687,7 @@
         <x:v>671</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
-        <x:v>743</x:v>
+        <x:v>742</x:v>
       </x:c>
       <x:c r="F46" s="1" t="n">
         <x:v>551</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -650,7 +650,7 @@
         <x:v>1146</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>1127</x:v>
+        <x:v>1128</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
         <x:v>367</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -777,7 +777,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
         <x:v>112</x:v>
@@ -907,13 +907,13 @@
         <x:v>2506</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>3414</x:v>
+        <x:v>3413</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
         <x:v>3153</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
-        <x:v>1051</x:v>
+        <x:v>1050</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
         <x:v>0</x:v>
@@ -1297,7 +1297,7 @@
         <x:v>1342</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
-        <x:v>1912</x:v>
+        <x:v>1911</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
         <x:v>1758</x:v>
@@ -1632,7 +1632,7 @@
         <x:v>244</x:v>
       </x:c>
       <x:c r="D44" s="1" t="n">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="E44" s="1" t="n">
         <x:v>571</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -878,7 +878,7 @@
         <x:v>305</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>954</x:v>
+        <x:v>955</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>1448</x:v>
@@ -907,7 +907,7 @@
         <x:v>2506</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>3413</x:v>
+        <x:v>3412</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
         <x:v>3153</x:v>
@@ -1066,7 +1066,7 @@
         <x:v>541</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>486</x:v>
+        <x:v>488</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
         <x:v>139</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -887,7 +887,7 @@
         <x:v>1254</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>289</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>
@@ -907,13 +907,13 @@
         <x:v>2506</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>3412</x:v>
+        <x:v>3408</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>3153</x:v>
+        <x:v>3150</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
-        <x:v>1050</x:v>
+        <x:v>1049</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -878,7 +878,7 @@
         <x:v>305</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>955</x:v>
+        <x:v>954</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>1448</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -884,7 +884,7 @@
         <x:v>1448</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>1254</x:v>
+        <x:v>1253</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>288</x:v>
@@ -907,10 +907,10 @@
         <x:v>2506</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>3408</x:v>
+        <x:v>3407</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>3150</x:v>
+        <x:v>3148</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>1049</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -673,7 +673,7 @@
         <x:v>2050</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>3826</x:v>
+        <x:v>3827</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
         <x:v>3888</x:v>
@@ -884,7 +884,7 @@
         <x:v>1448</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>1253</x:v>
+        <x:v>1252</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>288</x:v>
@@ -1323,10 +1323,10 @@
         <x:v>1686</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
-        <x:v>2647</x:v>
+        <x:v>2646</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
-        <x:v>2319</x:v>
+        <x:v>2318</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
         <x:v>985</x:v>
@@ -1430,7 +1430,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="F36" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G36" s="1" t="n">
         <x:v>25</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -861,7 +861,7 @@
         <x:v>424</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
-        <x:v>132</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="H14" s="1" t="n">
         <x:v>0</x:v>
@@ -881,7 +881,7 @@
         <x:v>954</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>1448</x:v>
+        <x:v>1447</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
         <x:v>1252</x:v>
@@ -907,13 +907,13 @@
         <x:v>2506</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>3407</x:v>
+        <x:v>3403</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>3148</x:v>
+        <x:v>3145</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
-        <x:v>1049</x:v>
+        <x:v>1048</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
         <x:v>0</x:v>
@@ -1323,7 +1323,7 @@
         <x:v>1686</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
-        <x:v>2646</x:v>
+        <x:v>2645</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
         <x:v>2318</x:v>
@@ -1664,7 +1664,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="F45" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G45" s="1" t="n">
         <x:v>15</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -884,7 +884,7 @@
         <x:v>1447</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>1252</x:v>
+        <x:v>1251</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>288</x:v>
@@ -907,10 +907,10 @@
         <x:v>2506</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>3403</x:v>
+        <x:v>3402</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>3145</x:v>
+        <x:v>3144</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>1048</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -904,10 +904,10 @@
         <x:v>656</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>2506</x:v>
+        <x:v>2505</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>3402</x:v>
+        <x:v>3400</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
         <x:v>3144</x:v>
@@ -1060,7 +1060,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>389</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>541</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -754,7 +754,7 @@
         <x:v>432</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>416</x:v>
+        <x:v>417</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>120</x:v>
@@ -881,7 +881,7 @@
         <x:v>954</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>1447</x:v>
+        <x:v>1446</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
         <x:v>1251</x:v>
@@ -904,7 +904,7 @@
         <x:v>656</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>2505</x:v>
+        <x:v>2506</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
         <x:v>3400</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -1043,7 +1043,7 @@
         <x:v>296</x:v>
       </x:c>
       <x:c r="G21" s="1" t="n">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H21" s="1" t="n">
         <x:v>0</x:v>
@@ -1069,7 +1069,7 @@
         <x:v>488</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
         <x:v>0</x:v>
@@ -1684,7 +1684,7 @@
         <x:v>299</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
-        <x:v>671</x:v>
+        <x:v>672</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
         <x:v>742</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -806,7 +806,7 @@
         <x:v>150</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="G12" s="1" t="n">
         <x:v>45</x:v>
@@ -881,7 +881,7 @@
         <x:v>954</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>1446</x:v>
+        <x:v>1445</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
         <x:v>1251</x:v>
@@ -913,7 +913,7 @@
         <x:v>3144</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
-        <x:v>1048</x:v>
+        <x:v>1049</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -910,7 +910,7 @@
         <x:v>3400</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>3144</x:v>
+        <x:v>3143</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>1049</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -878,7 +878,7 @@
         <x:v>305</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>954</x:v>
+        <x:v>953</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>1445</x:v>
@@ -1320,7 +1320,7 @@
         <x:v>807</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
-        <x:v>1686</x:v>
+        <x:v>1687</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
         <x:v>2645</x:v>
@@ -1638,7 +1638,7 @@
         <x:v>571</x:v>
       </x:c>
       <x:c r="F44" s="1" t="n">
-        <x:v>534</x:v>
+        <x:v>535</x:v>
       </x:c>
       <x:c r="G44" s="1" t="n">
         <x:v>88</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -881,7 +881,7 @@
         <x:v>953</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>1445</x:v>
+        <x:v>1443</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
         <x:v>1251</x:v>
@@ -904,10 +904,10 @@
         <x:v>656</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>2506</x:v>
+        <x:v>2505</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>3400</x:v>
+        <x:v>3399</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
         <x:v>3143</x:v>
@@ -1320,7 +1320,7 @@
         <x:v>807</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
-        <x:v>1687</x:v>
+        <x:v>1686</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
         <x:v>2645</x:v>
@@ -1609,7 +1609,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="F43" s="1" t="n">
         <x:v>128</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -803,7 +803,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
         <x:v>169</x:v>
@@ -1060,10 +1060,10 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>390</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
-        <x:v>541</x:v>
+        <x:v>542</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
         <x:v>488</x:v>
@@ -1317,7 +1317,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C32" s="1" t="n">
-        <x:v>807</x:v>
+        <x:v>804</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
         <x:v>1686</x:v>
@@ -1629,7 +1629,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C44" s="1" t="n">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="D44" s="1" t="n">
         <x:v>296</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -653,7 +653,7 @@
         <x:v>1128</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
-        <x:v>367</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
         <x:v>0</x:v>
@@ -670,16 +670,16 @@
         <x:v>1379</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>2050</x:v>
+        <x:v>2049</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>3827</x:v>
+        <x:v>3826</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>3888</x:v>
+        <x:v>3886</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>1534</x:v>
+        <x:v>1533</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -754,7 +754,7 @@
         <x:v>432</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>417</x:v>
+        <x:v>416</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>120</x:v>
@@ -887,7 +887,7 @@
         <x:v>1251</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>288</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>
@@ -910,7 +910,7 @@
         <x:v>3399</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>3143</x:v>
+        <x:v>3141</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>1049</x:v>
@@ -1300,10 +1300,10 @@
         <x:v>1911</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
-        <x:v>1758</x:v>
+        <x:v>1756</x:v>
       </x:c>
       <x:c r="G31" s="1" t="n">
-        <x:v>733</x:v>
+        <x:v>732</x:v>
       </x:c>
       <x:c r="H31" s="1" t="n">
         <x:v>0</x:v>
@@ -1320,16 +1320,16 @@
         <x:v>804</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
-        <x:v>1686</x:v>
+        <x:v>1685</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
-        <x:v>2645</x:v>
+        <x:v>2643</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
-        <x:v>2318</x:v>
+        <x:v>2317</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
-        <x:v>985</x:v>
+        <x:v>984</x:v>
       </x:c>
       <x:c r="H32" s="1" t="n">
         <x:v>1</x:v>
@@ -1433,7 +1433,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="G36" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H36" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -667,16 +667,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>1379</x:v>
+        <x:v>1378</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>2049</x:v>
+        <x:v>2048</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>3826</x:v>
+        <x:v>3827</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>3886</x:v>
+        <x:v>3885</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>1533</x:v>
@@ -852,7 +852,7 @@
         <x:v>353</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
         <x:v>409</x:v>
@@ -904,13 +904,13 @@
         <x:v>656</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>2505</x:v>
+        <x:v>2506</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
         <x:v>3399</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>3141</x:v>
+        <x:v>3142</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>1049</x:v>
@@ -1300,7 +1300,7 @@
         <x:v>1911</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
-        <x:v>1756</x:v>
+        <x:v>1755</x:v>
       </x:c>
       <x:c r="G31" s="1" t="n">
         <x:v>732</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -881,7 +881,7 @@
         <x:v>953</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>1443</x:v>
+        <x:v>1442</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
         <x:v>1251</x:v>
@@ -1323,7 +1323,7 @@
         <x:v>1685</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
-        <x:v>2643</x:v>
+        <x:v>2644</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
         <x:v>2317</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -676,7 +676,7 @@
         <x:v>3827</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>3885</x:v>
+        <x:v>3884</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>1533</x:v>
@@ -878,7 +878,7 @@
         <x:v>305</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>953</x:v>
+        <x:v>952</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>1442</x:v>
@@ -1040,7 +1040,7 @@
         <x:v>320</x:v>
       </x:c>
       <x:c r="F21" s="1" t="n">
-        <x:v>296</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="G21" s="1" t="n">
         <x:v>78</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -881,7 +881,7 @@
         <x:v>952</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>1442</x:v>
+        <x:v>1441</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
         <x:v>1251</x:v>
@@ -907,13 +907,13 @@
         <x:v>2506</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>3399</x:v>
+        <x:v>3398</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>3142</x:v>
+        <x:v>3141</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
-        <x:v>1049</x:v>
+        <x:v>1048</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
         <x:v>0</x:v>
@@ -1300,7 +1300,7 @@
         <x:v>1911</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
-        <x:v>1755</x:v>
+        <x:v>1756</x:v>
       </x:c>
       <x:c r="G31" s="1" t="n">
         <x:v>732</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -670,7 +670,7 @@
         <x:v>1378</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>2048</x:v>
+        <x:v>2049</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
         <x:v>3827</x:v>
@@ -780,7 +780,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
         <x:v>16</x:v>
@@ -1300,7 +1300,7 @@
         <x:v>1911</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
-        <x:v>1756</x:v>
+        <x:v>1757</x:v>
       </x:c>
       <x:c r="G31" s="1" t="n">
         <x:v>732</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -644,13 +644,13 @@
         <x:v>864</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>729</x:v>
+        <x:v>728</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
         <x:v>1146</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>1128</x:v>
+        <x:v>1127</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
         <x:v>366</x:v>
@@ -673,7 +673,7 @@
         <x:v>2049</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>3827</x:v>
+        <x:v>3826</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
         <x:v>3884</x:v>
@@ -754,7 +754,7 @@
         <x:v>432</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>416</x:v>
+        <x:v>417</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>120</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -904,13 +904,13 @@
         <x:v>656</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>2506</x:v>
+        <x:v>2505</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>3398</x:v>
+        <x:v>3396</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>3141</x:v>
+        <x:v>3140</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>1048</x:v>
@@ -1060,7 +1060,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>392</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>542</x:v>
@@ -1320,7 +1320,7 @@
         <x:v>804</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
-        <x:v>1685</x:v>
+        <x:v>1686</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
         <x:v>2644</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -1303,7 +1303,7 @@
         <x:v>1757</x:v>
       </x:c>
       <x:c r="G31" s="1" t="n">
-        <x:v>732</x:v>
+        <x:v>733</x:v>
       </x:c>
       <x:c r="H31" s="1" t="n">
         <x:v>0</x:v>
@@ -1323,7 +1323,7 @@
         <x:v>1686</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
-        <x:v>2644</x:v>
+        <x:v>2645</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
         <x:v>2317</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -670,7 +670,7 @@
         <x:v>1378</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>2049</x:v>
+        <x:v>2050</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
         <x:v>3826</x:v>
@@ -881,7 +881,7 @@
         <x:v>952</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>1441</x:v>
+        <x:v>1440</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
         <x:v>1251</x:v>
@@ -910,10 +910,10 @@
         <x:v>3396</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>3140</x:v>
+        <x:v>3136</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
-        <x:v>1048</x:v>
+        <x:v>1046</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
         <x:v>0</x:v>
@@ -1320,7 +1320,7 @@
         <x:v>804</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
-        <x:v>1686</x:v>
+        <x:v>1688</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
         <x:v>2645</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -881,7 +881,7 @@
         <x:v>952</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>1440</x:v>
+        <x:v>1438</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
         <x:v>1251</x:v>
@@ -907,13 +907,13 @@
         <x:v>2505</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>3396</x:v>
+        <x:v>3395</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>3136</x:v>
+        <x:v>3133</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
-        <x:v>1046</x:v>
+        <x:v>1045</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
         <x:v>0</x:v>
@@ -1297,7 +1297,7 @@
         <x:v>1342</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
-        <x:v>1911</x:v>
+        <x:v>1910</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
         <x:v>1757</x:v>
@@ -1586,7 +1586,7 @@
         <x:v>201</x:v>
       </x:c>
       <x:c r="F42" s="1" t="n">
-        <x:v>245</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="G42" s="1" t="n">
         <x:v>160</x:v>
@@ -1638,7 +1638,7 @@
         <x:v>571</x:v>
       </x:c>
       <x:c r="F44" s="1" t="n">
-        <x:v>535</x:v>
+        <x:v>536</x:v>
       </x:c>
       <x:c r="G44" s="1" t="n">
         <x:v>88</x:v>
@@ -1684,7 +1684,7 @@
         <x:v>299</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
-        <x:v>672</x:v>
+        <x:v>673</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
         <x:v>742</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -644,10 +644,10 @@
         <x:v>864</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>728</x:v>
+        <x:v>729</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>1146</x:v>
+        <x:v>1149</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
         <x:v>1127</x:v>
@@ -667,19 +667,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>1378</x:v>
+        <x:v>1381</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>2050</x:v>
+        <x:v>2055</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>3826</x:v>
+        <x:v>3835</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>3884</x:v>
+        <x:v>3890</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>1533</x:v>
+        <x:v>1534</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -728,7 +728,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>23</x:v>
@@ -777,7 +777,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
         <x:v>113</x:v>
@@ -849,7 +849,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>353</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
         <x:v>294</x:v>
@@ -878,10 +878,10 @@
         <x:v>305</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>952</x:v>
+        <x:v>954</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>1438</x:v>
+        <x:v>1441</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
         <x:v>1251</x:v>
@@ -901,19 +901,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>656</x:v>
+        <x:v>657</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>2505</x:v>
+        <x:v>2506</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>3395</x:v>
+        <x:v>3398</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>3133</x:v>
+        <x:v>3138</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
-        <x:v>1045</x:v>
+        <x:v>1048</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
         <x:v>0</x:v>
@@ -1037,7 +1037,7 @@
         <x:v>179</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
-        <x:v>320</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="F21" s="1" t="n">
         <x:v>297</x:v>
@@ -1291,7 +1291,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>562</x:v>
+        <x:v>563</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
         <x:v>1342</x:v>
@@ -1317,7 +1317,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C32" s="1" t="n">
-        <x:v>804</x:v>
+        <x:v>805</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
         <x:v>1688</x:v>
@@ -1326,7 +1326,7 @@
         <x:v>2645</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
-        <x:v>2317</x:v>
+        <x:v>2318</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
         <x:v>984</x:v>
@@ -1372,13 +1372,13 @@
         <x:v>179</x:v>
       </x:c>
       <x:c r="D34" s="1" t="n">
-        <x:v>142</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="E34" s="1" t="n">
         <x:v>221</x:v>
       </x:c>
       <x:c r="F34" s="1" t="n">
-        <x:v>197</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="G34" s="1" t="n">
         <x:v>33</x:v>
@@ -1583,7 +1583,7 @@
         <x:v>182</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
-        <x:v>201</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="F42" s="1" t="n">
         <x:v>244</x:v>
@@ -1632,7 +1632,7 @@
         <x:v>243</x:v>
       </x:c>
       <x:c r="D44" s="1" t="n">
-        <x:v>296</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="E44" s="1" t="n">
         <x:v>571</x:v>
@@ -1641,7 +1641,7 @@
         <x:v>536</x:v>
       </x:c>
       <x:c r="G44" s="1" t="n">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H44" s="1" t="n">
         <x:v>0</x:v>
@@ -1690,7 +1690,7 @@
         <x:v>742</x:v>
       </x:c>
       <x:c r="F46" s="1" t="n">
-        <x:v>551</x:v>
+        <x:v>549</x:v>
       </x:c>
       <x:c r="G46" s="1" t="n">
         <x:v>219</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -1346,7 +1346,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E33" s="1" t="n">
         <x:v>80</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -676,7 +676,7 @@
         <x:v>3835</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>3890</x:v>
+        <x:v>3889</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>1534</x:v>
@@ -1346,7 +1346,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E33" s="1" t="n">
         <x:v>80</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -904,7 +904,7 @@
         <x:v>657</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>2506</x:v>
+        <x:v>2507</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
         <x:v>3398</x:v>
@@ -1690,7 +1690,7 @@
         <x:v>742</x:v>
       </x:c>
       <x:c r="F46" s="1" t="n">
-        <x:v>549</x:v>
+        <x:v>550</x:v>
       </x:c>
       <x:c r="G46" s="1" t="n">
         <x:v>219</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -884,7 +884,7 @@
         <x:v>1441</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>1251</x:v>
+        <x:v>1252</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>287</x:v>
@@ -910,7 +910,7 @@
         <x:v>3398</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>3138</x:v>
+        <x:v>3140</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>1048</x:v>
@@ -1577,7 +1577,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C42" s="1" t="n">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
         <x:v>182</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -878,7 +878,7 @@
         <x:v>305</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>954</x:v>
+        <x:v>953</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>1441</x:v>
@@ -910,10 +910,10 @@
         <x:v>3398</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>3140</x:v>
+        <x:v>3138</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
-        <x:v>1048</x:v>
+        <x:v>1047</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
         <x:v>0</x:v>
@@ -1577,7 +1577,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C42" s="1" t="n">
-        <x:v>161</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
         <x:v>182</x:v>
@@ -1612,7 +1612,7 @@
         <x:v>168</x:v>
       </x:c>
       <x:c r="F43" s="1" t="n">
-        <x:v>128</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="G43" s="1" t="n">
         <x:v>21</x:v>
@@ -1632,7 +1632,7 @@
         <x:v>243</x:v>
       </x:c>
       <x:c r="D44" s="1" t="n">
-        <x:v>297</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="E44" s="1" t="n">
         <x:v>571</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -1577,7 +1577,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C42" s="1" t="n">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
         <x:v>182</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -881,7 +881,7 @@
         <x:v>953</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>1441</x:v>
+        <x:v>1440</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
         <x:v>1252</x:v>
@@ -907,7 +907,7 @@
         <x:v>2507</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>3398</x:v>
+        <x:v>3397</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
         <x:v>3138</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -858,7 +858,7 @@
         <x:v>409</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>424</x:v>
+        <x:v>425</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
         <x:v>131</x:v>
@@ -881,13 +881,13 @@
         <x:v>953</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>1440</x:v>
+        <x:v>1439</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>1252</x:v>
+        <x:v>1251</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>287</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>
@@ -907,13 +907,13 @@
         <x:v>2507</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>3397</x:v>
+        <x:v>3395</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
         <x:v>3138</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
-        <x:v>1047</x:v>
+        <x:v>1045</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
         <x:v>0</x:v>
@@ -1690,7 +1690,7 @@
         <x:v>742</x:v>
       </x:c>
       <x:c r="F46" s="1" t="n">
-        <x:v>550</x:v>
+        <x:v>551</x:v>
       </x:c>
       <x:c r="G46" s="1" t="n">
         <x:v>219</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -1577,10 +1577,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C42" s="1" t="n">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
-        <x:v>182</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
         <x:v>200</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -670,7 +670,7 @@
         <x:v>1381</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>2055</x:v>
+        <x:v>2056</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
         <x:v>3835</x:v>
@@ -881,7 +881,7 @@
         <x:v>953</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>1439</x:v>
+        <x:v>1438</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
         <x:v>1251</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -1063,7 +1063,7 @@
         <x:v>391</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
-        <x:v>542</x:v>
+        <x:v>543</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
         <x:v>488</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -849,7 +849,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>355</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
         <x:v>294</x:v>
@@ -878,10 +878,10 @@
         <x:v>305</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>953</x:v>
+        <x:v>952</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>1438</x:v>
+        <x:v>1437</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
         <x:v>1251</x:v>
@@ -1609,7 +1609,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="F43" s="1" t="n">
         <x:v>127</x:v>
@@ -1658,7 +1658,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
         <x:v>74</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -673,7 +673,7 @@
         <x:v>2056</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>3835</x:v>
+        <x:v>3836</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
         <x:v>3889</x:v>
@@ -907,7 +907,7 @@
         <x:v>2507</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>3395</x:v>
+        <x:v>3396</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
         <x:v>3138</x:v>
@@ -1066,7 +1066,7 @@
         <x:v>543</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>488</x:v>
+        <x:v>489</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
         <x:v>140</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -650,7 +650,7 @@
         <x:v>1149</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>1127</x:v>
+        <x:v>1126</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
         <x:v>366</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -907,7 +907,7 @@
         <x:v>2507</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>3396</x:v>
+        <x:v>3394</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
         <x:v>3138</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -881,7 +881,7 @@
         <x:v>952</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>1437</x:v>
+        <x:v>1436</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
         <x:v>1251</x:v>
@@ -907,7 +907,7 @@
         <x:v>2507</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>3394</x:v>
+        <x:v>3395</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
         <x:v>3138</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -226,7 +226,7 @@
     <x:t>952</x:t>
   </x:si>
   <x:si>
-    <x:t>1436</x:t>
+    <x:t>1435</x:t>
   </x:si>
   <x:si>
     <x:t>1251</x:t>
@@ -244,7 +244,7 @@
     <x:t>3395</x:t>
   </x:si>
   <x:si>
-    <x:t>3137</x:t>
+    <x:t>3136</x:t>
   </x:si>
   <x:si>
     <x:t>1045</x:t>
@@ -460,7 +460,7 @@
     <x:t>296</x:t>
   </x:si>
   <x:si>
-    <x:t>571</x:t>
+    <x:t>572</x:t>
   </x:si>
   <x:si>
     <x:t>536</x:t>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -460,7 +460,7 @@
     <x:t>296</x:t>
   </x:si>
   <x:si>
-    <x:t>572</x:t>
+    <x:t>573</x:t>
   </x:si>
   <x:si>
     <x:t>536</x:t>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -226,7 +226,7 @@
     <x:t>952</x:t>
   </x:si>
   <x:si>
-    <x:t>1435</x:t>
+    <x:t>1433</x:t>
   </x:si>
   <x:si>
     <x:t>1251</x:t>
@@ -241,7 +241,7 @@
     <x:t>2507</x:t>
   </x:si>
   <x:si>
-    <x:t>3395</x:t>
+    <x:t>3394</x:t>
   </x:si>
   <x:si>
     <x:t>3136</x:t>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -229,7 +229,7 @@
     <x:t>1433</x:t>
   </x:si>
   <x:si>
-    <x:t>1251</x:t>
+    <x:t>1252</x:t>
   </x:si>
   <x:si>
     <x:t>286</x:t>
@@ -346,7 +346,7 @@
     <x:t>1342</x:t>
   </x:si>
   <x:si>
-    <x:t>1910</x:t>
+    <x:t>1911</x:t>
   </x:si>
   <x:si>
     <x:t>1757</x:t>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -229,10 +229,10 @@
     <x:t>1433</x:t>
   </x:si>
   <x:si>
-    <x:t>1252</x:t>
-  </x:si>
-  <x:si>
-    <x:t>286</x:t>
+    <x:t>1253</x:t>
+  </x:si>
+  <x:si>
+    <x:t>287</x:t>
   </x:si>
   <x:si>
     <x:t>656</x:t>
@@ -247,7 +247,7 @@
     <x:t>3136</x:t>
   </x:si>
   <x:si>
-    <x:t>1045</x:t>
+    <x:t>1046</x:t>
   </x:si>
   <x:si>
     <x:t>Embezzlement</x:t>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -238,7 +238,7 @@
     <x:t>656</x:t>
   </x:si>
   <x:si>
-    <x:t>2507</x:t>
+    <x:t>2506</x:t>
   </x:si>
   <x:si>
     <x:t>3394</x:t>
@@ -406,7 +406,7 @@
     <x:t>34</x:t>
   </x:si>
   <x:si>
-    <x:t>51</x:t>
+    <x:t>48</x:t>
   </x:si>
   <x:si>
     <x:t>217</x:t>
@@ -433,7 +433,7 @@
     <x:t>200</x:t>
   </x:si>
   <x:si>
-    <x:t>245</x:t>
+    <x:t>244</x:t>
   </x:si>
   <x:si>
     <x:t>160</x:t>
@@ -1892,7 +1892,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="F39" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G39" s="1" t="s">
         <x:v>10</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -223,10 +223,10 @@
     <x:t>305</x:t>
   </x:si>
   <x:si>
-    <x:t>952</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1433</x:t>
+    <x:t>950</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1432</x:t>
   </x:si>
   <x:si>
     <x:t>1253</x:t>
@@ -244,7 +244,7 @@
     <x:t>3394</x:t>
   </x:si>
   <x:si>
-    <x:t>3136</x:t>
+    <x:t>3134</x:t>
   </x:si>
   <x:si>
     <x:t>1046</x:t>
@@ -445,7 +445,10 @@
     <x:t>61</x:t>
   </x:si>
   <x:si>
-    <x:t>96</x:t>
+    <x:t>98</x:t>
+  </x:si>
+  <x:si>
+    <x:t>170</x:t>
   </x:si>
   <x:si>
     <x:t>127</x:t>
@@ -457,10 +460,7 @@
     <x:t>243</x:t>
   </x:si>
   <x:si>
-    <x:t>296</x:t>
-  </x:si>
-  <x:si>
-    <x:t>573</x:t>
+    <x:t>574</x:t>
   </x:si>
   <x:si>
     <x:t>536</x:t>
@@ -1993,13 +1993,13 @@
         <x:v>143</x:v>
       </x:c>
       <x:c r="E43" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="F43" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="G43" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="H43" s="1" t="s">
         <x:v>10</x:v>
@@ -2013,10 +2013,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C44" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D44" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E44" s="1" t="s">
         <x:v>148</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -433,7 +433,7 @@
     <x:t>200</x:t>
   </x:si>
   <x:si>
-    <x:t>244</x:t>
+    <x:t>245</x:t>
   </x:si>
   <x:si>
     <x:t>160</x:t>
@@ -458,6 +458,9 @@
   </x:si>
   <x:si>
     <x:t>243</x:t>
+  </x:si>
+  <x:si>
+    <x:t>298</x:t>
   </x:si>
   <x:si>
     <x:t>574</x:t>
@@ -2016,16 +2019,16 @@
         <x:v>147</x:v>
       </x:c>
       <x:c r="D44" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="E44" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="F44" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="G44" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="H44" s="1" t="s">
         <x:v>13</x:v>
@@ -2033,22 +2036,22 @@
     </x:row>
     <x:row r="45" spans="1:8">
       <x:c r="A45" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C45" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="D45" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="E45" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="F45" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="G45" s="1" t="s">
         <x:v>99</x:v>
@@ -2059,25 +2062,25 @@
     </x:row>
     <x:row r="46" spans="1:8">
       <x:c r="A46" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="C46" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D46" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="E46" s="1" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="F46" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="G46" s="1" t="s">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="H46" s="1" t="s">
         <x:v>13</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -97,7 +97,7 @@
     <x:t>Assault Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>864</x:t>
+    <x:t>863</x:t>
   </x:si>
   <x:si>
     <x:t>729</x:t>
@@ -112,7 +112,7 @@
     <x:t>366</x:t>
   </x:si>
   <x:si>
-    <x:t>1381</x:t>
+    <x:t>1379</x:t>
   </x:si>
   <x:si>
     <x:t>2056</x:t>
@@ -154,7 +154,7 @@
     <x:t>224</x:t>
   </x:si>
   <x:si>
-    <x:t>432</x:t>
+    <x:t>433</x:t>
   </x:si>
   <x:si>
     <x:t>417</x:t>
@@ -208,7 +208,7 @@
     <x:t>294</x:t>
   </x:si>
   <x:si>
-    <x:t>409</x:t>
+    <x:t>412</x:t>
   </x:si>
   <x:si>
     <x:t>425</x:t>
@@ -244,7 +244,7 @@
     <x:t>3394</x:t>
   </x:si>
   <x:si>
-    <x:t>3134</x:t>
+    <x:t>3133</x:t>
   </x:si>
   <x:si>
     <x:t>1046</x:t>
@@ -361,7 +361,7 @@
     <x:t>1690</x:t>
   </x:si>
   <x:si>
-    <x:t>2645</x:t>
+    <x:t>2648</x:t>
   </x:si>
   <x:si>
     <x:t>2318</x:t>
@@ -433,7 +433,7 @@
     <x:t>200</x:t>
   </x:si>
   <x:si>
-    <x:t>245</x:t>
+    <x:t>246</x:t>
   </x:si>
   <x:si>
     <x:t>160</x:t>
@@ -487,7 +487,7 @@
     <x:t>52</x:t>
   </x:si>
   <x:si>
-    <x:t>299</x:t>
+    <x:t>300</x:t>
   </x:si>
   <x:si>
     <x:t>673</x:t>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -121,7 +121,7 @@
     <x:t>3836</x:t>
   </x:si>
   <x:si>
-    <x:t>3888</x:t>
+    <x:t>3889</x:t>
   </x:si>
   <x:si>
     <x:t>1534</x:t>
@@ -244,7 +244,7 @@
     <x:t>3394</x:t>
   </x:si>
   <x:si>
-    <x:t>3133</x:t>
+    <x:t>3134</x:t>
   </x:si>
   <x:si>
     <x:t>1046</x:t>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -106,7 +106,7 @@
     <x:t>1149</x:t>
   </x:si>
   <x:si>
-    <x:t>1126</x:t>
+    <x:t>1127</x:t>
   </x:si>
   <x:si>
     <x:t>366</x:t>
@@ -121,7 +121,7 @@
     <x:t>3836</x:t>
   </x:si>
   <x:si>
-    <x:t>3889</x:t>
+    <x:t>3890</x:t>
   </x:si>
   <x:si>
     <x:t>1534</x:t>
@@ -148,7 +148,7 @@
     <x:t>23</x:t>
   </x:si>
   <x:si>
-    <x:t>157</x:t>
+    <x:t>158</x:t>
   </x:si>
   <x:si>
     <x:t>224</x:t>
@@ -214,7 +214,7 @@
     <x:t>425</x:t>
   </x:si>
   <x:si>
-    <x:t>131</x:t>
+    <x:t>132</x:t>
   </x:si>
   <x:si>
     <x:t>Drug/Narcotic Violations</x:t>
@@ -226,7 +226,7 @@
     <x:t>950</x:t>
   </x:si>
   <x:si>
-    <x:t>1432</x:t>
+    <x:t>1431</x:t>
   </x:si>
   <x:si>
     <x:t>1253</x:t>
@@ -241,13 +241,13 @@
     <x:t>2506</x:t>
   </x:si>
   <x:si>
-    <x:t>3394</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3134</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1046</x:t>
+    <x:t>3395</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3133</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1047</x:t>
   </x:si>
   <x:si>
     <x:t>Embezzlement</x:t>
@@ -349,7 +349,7 @@
     <x:t>1911</x:t>
   </x:si>
   <x:si>
-    <x:t>1757</x:t>
+    <x:t>1758</x:t>
   </x:si>
   <x:si>
     <x:t>733</x:t>
@@ -361,7 +361,7 @@
     <x:t>1690</x:t>
   </x:si>
   <x:si>
-    <x:t>2648</x:t>
+    <x:t>2649</x:t>
   </x:si>
   <x:si>
     <x:t>2318</x:t>
@@ -448,7 +448,7 @@
     <x:t>98</x:t>
   </x:si>
   <x:si>
-    <x:t>170</x:t>
+    <x:t>171</x:t>
   </x:si>
   <x:si>
     <x:t>127</x:t>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -241,7 +241,7 @@
     <x:t>2506</x:t>
   </x:si>
   <x:si>
-    <x:t>3395</x:t>
+    <x:t>3393</x:t>
   </x:si>
   <x:si>
     <x:t>3133</x:t>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -241,10 +241,10 @@
     <x:t>2506</x:t>
   </x:si>
   <x:si>
-    <x:t>3393</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3133</x:t>
+    <x:t>3392</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3131</x:t>
   </x:si>
   <x:si>
     <x:t>1047</x:t>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -244,7 +244,7 @@
     <x:t>3392</x:t>
   </x:si>
   <x:si>
-    <x:t>3131</x:t>
+    <x:t>3132</x:t>
   </x:si>
   <x:si>
     <x:t>1047</x:t>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -244,7 +244,7 @@
     <x:t>3392</x:t>
   </x:si>
   <x:si>
-    <x:t>3132</x:t>
+    <x:t>3133</x:t>
   </x:si>
   <x:si>
     <x:t>1047</x:t>
@@ -367,7 +367,7 @@
     <x:t>2318</x:t>
   </x:si>
   <x:si>
-    <x:t>984</x:t>
+    <x:t>983</x:t>
   </x:si>
   <x:si>
     <x:t>Motor Vehicle Theft</x:t>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2022.xlsx
@@ -226,7 +226,7 @@
     <x:t>950</x:t>
   </x:si>
   <x:si>
-    <x:t>1431</x:t>
+    <x:t>1432</x:t>
   </x:si>
   <x:si>
     <x:t>1253</x:t>
@@ -244,7 +244,7 @@
     <x:t>3392</x:t>
   </x:si>
   <x:si>
-    <x:t>3133</x:t>
+    <x:t>3132</x:t>
   </x:si>
   <x:si>
     <x:t>1047</x:t>
@@ -466,7 +466,7 @@
     <x:t>574</x:t>
   </x:si>
   <x:si>
-    <x:t>536</x:t>
+    <x:t>537</x:t>
   </x:si>
   <x:si>
     <x:t>89</x:t>
